--- a/Laptop_build.xlsx
+++ b/Laptop_build.xlsx
@@ -9,13 +9,9 @@
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Build" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Cooling" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Cooling" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -174,24 +170,36 @@
     <t xml:space="preserve">https://www.amazon.com/Anker-Extended-MacBook-Surface-Notebook/dp/B07L32B9C2/ref=sr_1_4?keywords=usb+3+hub&amp;qid=1562626939&amp;s=gateway&amp;smid=A294P4X9EWVXLJ&amp;sr=8-4</t>
   </si>
   <si>
-    <t xml:space="preserve">Keyboard/touchpad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rii K12+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B077VYRMC1/ref=psdc_1194464_t2_B011KPIZ9G</t>
+    <t xml:space="preserve">Keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periboard-426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/gp/product/B087679W1N?psc=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numpad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFMicro USB Numpad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/gp/product/B0872XMZ4M?psc=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touchpad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keymecher Mano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Keymecher-Multi-Gesture-Trackpad-Touchpad-Precision/dp/B085SVLH95</t>
   </si>
   <si>
     <t xml:space="preserve">Screen 15.6in</t>
   </si>
   <si>
-    <t xml:space="preserve">ASUS ZenScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B071S84ZW7/ref=psdc_1292115011_t1_B07C5LPZMW</t>
-  </si>
-  <si>
     <t xml:space="preserve">USB-C cable (video)</t>
   </si>
   <si>
@@ -213,10 +221,10 @@
     <t xml:space="preserve">WiFi/BT</t>
   </si>
   <si>
-    <t xml:space="preserve">WiFi 6 11AX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/AX200NGW-MU-MIMO-Wireless-Bluetooth-Support/dp/B07SH6GV5S/ref=sr_1_2?keywords=m.2+wifi+bluetooth+linux&amp;qid=1562948062&amp;s=gateway&amp;sr=8-2</t>
+    <t xml:space="preserve">Kit M.2 WiFi/Bt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shop.udoo.org/kit-m2-wifi-bt.html</t>
   </si>
   <si>
     <t xml:space="preserve">USB-C extension</t>
@@ -247,18 +255,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum of Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum of Price total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Result</t>
   </si>
   <si>
     <t xml:space="preserve">Fluid options</t>
@@ -359,117 +355,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -521,7 +412,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -542,72 +433,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -693,553 +520,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="21" createdVersion="3">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K22" sheet="Parts"/>
-  </cacheSource>
-  <cacheFields count="11">
-    <cacheField name="Part" numFmtId="0">
-      <sharedItems count="21">
-        <s v="10DoF IMU"/>
-        <s v="2KVM"/>
-        <s v="Battery packs"/>
-        <s v="Breadboard pack"/>
-        <s v="Ethernet coupler"/>
-        <s v="Ethernet extension"/>
-        <s v="Fingerprint reader"/>
-        <s v="GNSS"/>
-        <s v="HDD 1TB"/>
-        <s v="Keyboard/touchpad"/>
-        <s v="Motherboard"/>
-        <s v="Protoboard pack"/>
-        <s v="Qwiic cable kit"/>
-        <s v="RAM 16GB"/>
-        <s v="Screen 15.6in"/>
-        <s v="SSD 1TB"/>
-        <s v="USB-C cable (video)"/>
-        <s v="USB-C extension"/>
-        <s v="USB-SATA adapter"/>
-        <s v="USB3 Hub"/>
-        <s v="WiFi/BT"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Name" numFmtId="0">
-      <sharedItems count="21">
-        <s v="1ft patch cable"/>
-        <s v="2 Port KVM HDMI"/>
-        <s v="32pc 2-side PCB proto"/>
-        <s v="5Ah 11.1V 3S LiPo x2"/>
-        <s v="Anker 4-port"/>
-        <s v="ASUS ZenScreen"/>
-        <s v="Breadboard + zipwire"/>
-        <s v="Crucial 8GBx2 2400MHz"/>
-        <s v="Crucial P1"/>
-        <s v="MPU9250+BMP180"/>
-        <s v="Qwiic cable kit"/>
-        <s v="Rii K12+"/>
-        <s v="RJ45 coupler 10Gb"/>
-        <s v="SAM-M8Q Breakout"/>
-        <s v="SF 14518"/>
-        <s v="Toshiba MQ01ABD"/>
-        <s v="Udoo Bolt V8"/>
-        <s v="USB to SATA cable"/>
-        <s v="USB-C 1.5ft x2"/>
-        <s v="USB-C 3.1 extension x2"/>
-        <s v="WiFi 6 11AX"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Link" numFmtId="0">
-      <sharedItems count="21" longText="1">
-        <s v="https://wiki.seeedstudio.com/Grove-IMU_10DOF/"/>
-        <s v="https://www.amazon.com/Anker-Extended-MacBook-Surface-Notebook/dp/B07L32B9C2/ref=sr_1_4?keywords=usb+3+hub&amp;qid=1562626939&amp;s=gateway&amp;smid=A294P4X9EWVXLJ&amp;sr=8-4"/>
-        <s v="https://www.amazon.com/AX200NGW-MU-MIMO-Wireless-Bluetooth-Support/dp/B07SH6GV5S/ref=sr_1_2?keywords=m.2+wifi+bluetooth+linux&amp;qid=1562948062&amp;s=gateway&amp;sr=8-2"/>
-        <s v="https://www.amazon.com/Besgoods-Charging-Braided-Compatible-Nintendo/dp/B07H24V7YJ/ref=sr_1_6?keywords=usb-c+cable+2ft&amp;qid=1562636637&amp;s=pc&amp;sr=1-6"/>
-        <s v="https://www.amazon.com/BreadBoard-ZipWire-Solderless-ZW-MM-10-ZipWires/dp/B00PKKPSCU/ref=sr_1_25?keywords=solderless+breadboard&amp;qid=1562626835&amp;s=industrial&amp;sr=1-25"/>
-        <s v="https://www.amazon.com/Crucial-16GBx2-PC4-19200-SODIMM-260-Pin/dp/B019FRDAY6/ref=sr_1_3?crid=3124W60SZ717Q&amp;keywords=sodimm%2B2400%2B32gb&amp;qid=1562624362&amp;s=gateway&amp;sprefix=sodimm%2B2400%2B%2Caps%2C153&amp;sr=8-3&amp;th=1"/>
-        <s v="https://www.amazon.com/Crucial-1TB-NAND-NVMe-PCIe/dp/B07J2Q4SWZ/ref=sr_1_3?keywords=m.2+key+b+ssd&amp;qid=1562624616&amp;s=gateway&amp;sr=8-3"/>
-        <s v="https://www.amazon.com/dp/B009AYVNMQ/?coliid=I35V6HECAOKQSW&amp;colid=2LUIJZIICRMNA&amp;psc=1&amp;ref_=lv_ov_lig_dp_it"/>
-        <s v="https://www.amazon.com/dp/B00FSARCX0/?coliid=I16WQOKDSD9YRY&amp;colid=2LUIJZIICRMNA&amp;psc=1&amp;ref_=lv_ov_lig_dp_it"/>
-        <s v="https://www.amazon.com/dp/B00HJZJI84/?coliid=I25Z0ZKYPANEK5&amp;colid=2LUIJZIICRMNA&amp;psc=1&amp;ref_=lv_ov_lig_dp_it"/>
-        <s v="https://www.amazon.com/dp/B071S84ZW7/ref=psdc_1292115011_t1_B07C5LPZMW"/>
-        <s v="https://www.amazon.com/dp/B072WQ6FNP/?coliid=I3MOC6L9HG307I&amp;colid=2LUIJZIICRMNA&amp;psc=1&amp;ref_=lv_ov_lig_dp_it"/>
-        <s v="https://www.amazon.com/dp/B077VYRMC1/ref=psdc_1194464_t2_B011KPIZ9G"/>
-        <s v="https://www.amazon.com/dp/B07BHPZL11/?coliid=I1FC7WEQA7ZYF9&amp;colid=2LUIJZIICRMNA&amp;psc=1&amp;ref_=lv_ov_lig_dp_it"/>
-        <s v="https://www.amazon.com/Electronics123-SparkFun-Qwiic-Cable-Kit/dp/B07ML9BMXX/ref=sr_1_4?keywords=qwiic+cable&amp;qid=1562625168&amp;s=gateway&amp;sr=8-4"/>
-        <s v="https://www.amazon.com/ELEGOO-Prototype-Soldering-Compatible-Arduino/dp/B072Z7Y19F/ref=sr_1_5?keywords=protoboard&amp;qid=1562626781&amp;s=industrial&amp;sr=1-5"/>
-        <s v="https://www.amazon.com/Inline-Coupler-AVACON-Ethernet-Female/dp/B07DWPW5MJ/ref=sr_1_5?keywords=gigabit+ethernet+coupler&amp;qid=1562638098&amp;s=gateway&amp;sr=8-5"/>
-        <s v="https://www.amazon.com/Monoprice-Flexboot-Ethernet-Patch-Cable/dp/B00AJHCMG4/ref=sr_1_9?keywords=rj45+patch+cable+1ft&amp;qid=1562637988&amp;s=gateway&amp;sr=8-9"/>
-        <s v="https://www.amazon.com/RIITOP-Extender-Extension-Nintendo-Macbook/dp/B07NSXGM7F/ref=sxin_2_ac_d_pm?keywords=usb%2Bc%2Bextension%2Bcable&amp;pd_rd_i=B01LI2X4ME&amp;pd_rd_r=ecef4ce7-409b-40a0-9a92-4a28c759c2de&amp;pd_rd_w=wUSD8&amp;pd_rd_wg=FpYjh&amp;pf_rd_p=64aaff2e-3b89-4fee-a107-2469ecbc5733&amp;pf_rd_r=T7G96XX8V6BS81KAA74N&amp;qid=1562637699&amp;s=aht&amp;th=1"/>
-        <s v="https://www.sparkfun.com/products/15210"/>
-        <s v="https://www.udoo.org/udoo-bolt/"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Price per" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.22" maxValue="418" count="21">
-        <n v="2.22"/>
-        <n v="6.99"/>
-        <n v="7.99"/>
-        <n v="8.59"/>
-        <n v="8.9"/>
-        <n v="9.99"/>
-        <n v="10.99"/>
-        <n v="15.35"/>
-        <n v="15.99"/>
-        <n v="16.9"/>
-        <n v="26.99"/>
-        <n v="34.99"/>
-        <n v="38.95"/>
-        <n v="39.95"/>
-        <n v="43.99"/>
-        <n v="63.99"/>
-        <n v="74.89"/>
-        <n v="76.19"/>
-        <n v="99.95"/>
-        <n v="239.56"/>
-        <n v="418"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Quantity" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="2">
-        <n v="1"/>
-        <n v="3"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Price total" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.22" maxValue="418" count="21">
-        <n v="2.22"/>
-        <n v="6.99"/>
-        <n v="7.99"/>
-        <n v="8.59"/>
-        <n v="8.9"/>
-        <n v="9.99"/>
-        <n v="10.99"/>
-        <n v="15.35"/>
-        <n v="15.99"/>
-        <n v="16.9"/>
-        <n v="26.99"/>
-        <n v="34.99"/>
-        <n v="38.95"/>
-        <n v="39.95"/>
-        <n v="43.99"/>
-        <n v="63.99"/>
-        <n v="76.19"/>
-        <n v="99.95"/>
-        <n v="224.67"/>
-        <n v="239.56"/>
-        <n v="418"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Power draw (A)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="5" count="9">
-        <n v="0"/>
-        <n v="0.00393"/>
-        <n v="0.029"/>
-        <n v="0.3"/>
-        <n v="1.5"/>
-        <n v="1.7"/>
-        <n v="3.15"/>
-        <n v="5"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Power supply (V)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="19" count="9">
-        <n v="0"/>
-        <n v="1"/>
-        <n v="1.2"/>
-        <n v="3"/>
-        <n v="3.3"/>
-        <n v="4.6"/>
-        <n v="5"/>
-        <n v="19"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Watt total" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="59.85" count="8">
-        <n v="0"/>
-        <n v="0.01179"/>
-        <n v="0.0957"/>
-        <n v="1.38"/>
-        <n v="5"/>
-        <n v="5.61"/>
-        <n v="7.5"/>
-        <n v="59.85"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Weight (g)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.53" maxValue="780" count="12">
-        <n v="4.53"/>
-        <n v="9.07"/>
-        <n v="12.6"/>
-        <n v="18.14"/>
-        <n v="22.7"/>
-        <n v="40.82"/>
-        <n v="58.9"/>
-        <n v="117"/>
-        <n v="453"/>
-        <n v="753"/>
-        <n v="780"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Weight total" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2259" count="12">
-        <n v="0"/>
-        <n v="4.53"/>
-        <n v="9.07"/>
-        <n v="12.6"/>
-        <n v="18.14"/>
-        <n v="22.7"/>
-        <n v="40.82"/>
-        <n v="58.9"/>
-        <n v="117"/>
-        <n v="453"/>
-        <n v="780"/>
-        <n v="2259"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="21">
-  <r>
-    <x v="10"/>
-    <x v="16"/>
-    <x v="20"/>
-    <x v="20"/>
-    <x v="0"/>
-    <x v="20"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="15"/>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="18"/>
-    <x v="0"/>
-    <x v="17"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="15"/>
-    <x v="7"/>
-    <x v="14"/>
-    <x v="0"/>
-    <x v="14"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="16"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="10"/>
-    <x v="14"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="14"/>
-    <x v="13"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="12"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="13"/>
-    <x v="19"/>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="16"/>
-    <x v="1"/>
-    <x v="18"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="11"/>
-    <x v="12"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="5"/>
-    <x v="10"/>
-    <x v="19"/>
-    <x v="0"/>
-    <x v="19"/>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="10"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="18"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="17"/>
-    <x v="9"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="19"/>
-    <x v="18"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="16"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="A3:C24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="22">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="19"/>
-        <item x="16"/>
-        <item h="1" x="18"/>
-        <item x="20"/>
-        <item x="17"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <dataFields count="2">
-    <dataField name="Sum of Quantity" fld="4" subtotal="sum" numFmtId="164"/>
-    <dataField name="Sum of Price total" fld="5" subtotal="sum" numFmtId="165"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K23" headerRowCount="1" totalsRowCount="1" totalsRowShown="1">
-  <autoFilter ref="A1:K23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K25" headerRowCount="1" totalsRowCount="1" totalsRowShown="1">
+  <autoFilter ref="A1:K25"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Part"/>
     <tableColumn id="2" name="Name"/>
@@ -1257,17 +540,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.79"/>
@@ -1278,7 +561,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.1"/>
   </cols>
   <sheetData>
@@ -1775,7 +1058,7 @@
         <v>18.14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>49</v>
       </c>
@@ -1786,34 +1069,34 @@
         <v>51</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>26.99</v>
+        <v>19.99</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>26.99</v>
+        <v>19.99</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>453</v>
+        <v>381</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>453</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>52</v>
       </c>
@@ -1824,34 +1107,31 @@
         <v>54</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>239.56</v>
+        <v>7.99</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>239.56</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1.5</v>
+        <v>7.99</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>780</v>
+        <v>120</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>780</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>55</v>
       </c>
@@ -1862,198 +1142,178 @@
         <v>57</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>8.59</v>
+        <v>39.99</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>8.59</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0</v>
+        <v>39.99</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>40.82</v>
+        <v>91</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>40.82</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>10.99</v>
-      </c>
+      <c r="C18" s="3"/>
       <c r="E18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>10.99</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
-      <c r="J18" s="0" t="n">
-        <v>58.9</v>
-      </c>
       <c r="K18" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>58.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="D19" s="1" t="n">
-        <v>34.99</v>
+        <v>8.59</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>34.99</v>
+        <v>8.59</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>4.53</v>
+        <v>40.82</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>4.53</v>
+        <v>40.82</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="D20" s="1" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
+        <v>10.99</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="B21" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="n">
-        <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>15.99</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D21" s="1" t="n">
-        <v>2.22</v>
+        <v>16.9</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>2.22</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="I21" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>18.14</v>
+        <v>8.5</v>
       </c>
       <c r="K21" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>18.14</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D22" s="1" t="n">
-        <v>6.99</v>
+        <v>15.99</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F22" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>6.99</v>
+        <v>15.99</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>0</v>
@@ -2075,35 +1335,110 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="0"/>
+      <c r="D23" s="1" t="n">
+        <v>2.22</v>
+      </c>
       <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
+        <v>2.22</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
+        <v>6.99</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Quantity])</f>
-        <v>23</v>
-      </c>
-      <c r="F23" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="F25" s="4" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Price total])</f>
-        <v>1411.14</v>
-      </c>
-      <c r="G23" s="0" t="n">
+        <v>1194.47</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Power draw (A)])</f>
-        <v>11.68293</v>
-      </c>
-      <c r="H23" s="0" t="n">
+        <v>10.18293</v>
+      </c>
+      <c r="H25" s="0" t="n">
         <f aca="false">SUBTOTAL(104,Table1[Power supply (V)])</f>
         <v>19</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Watt total])</f>
-        <v>79.44749</v>
-      </c>
-      <c r="K23" s="0" t="n">
+        <v>72.06749</v>
+      </c>
+      <c r="K25" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Weight total])</f>
-        <v>3871.02</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>3233.99</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.udoo.org/udoo-bolt/"/>
@@ -2118,14 +1453,11 @@
     <hyperlink ref="C12" r:id="rId10" display="https://www.amazon.com/ELEGOO-Prototype-Soldering-Compatible-Arduino/dp/B072Z7Y19F/ref=sr_1_5?keywords=protoboard&amp;qid=1562626781&amp;s=industrial&amp;sr=1-5"/>
     <hyperlink ref="C13" r:id="rId11" display="https://www.amazon.com/BreadBoard-ZipWire-Solderless-ZW-MM-10-ZipWires/dp/B00PKKPSCU/ref=sr_1_25?keywords=solderless+breadboard&amp;qid=1562626835&amp;s=industrial&amp;sr=1-25"/>
     <hyperlink ref="C14" r:id="rId12" display="https://www.amazon.com/Anker-Extended-MacBook-Surface-Notebook/dp/B07L32B9C2/ref=sr_1_4?keywords=usb+3+hub&amp;qid=1562626939&amp;s=gateway&amp;smid=A294P4X9EWVXLJ&amp;sr=8-4"/>
-    <hyperlink ref="C15" r:id="rId13" display="https://www.amazon.com/dp/B077VYRMC1/ref=psdc_1194464_t2_B011KPIZ9G"/>
-    <hyperlink ref="C16" r:id="rId14" display="https://www.amazon.com/dp/B071S84ZW7/ref=psdc_1292115011_t1_B07C5LPZMW"/>
-    <hyperlink ref="C17" r:id="rId15" display="https://www.amazon.com/Besgoods-Charging-Braided-Compatible-Nintendo/dp/B07H24V7YJ/ref=sr_1_6?keywords=usb-c+cable+2ft&amp;qid=1562636637&amp;s=pc&amp;sr=1-6"/>
-    <hyperlink ref="C18" r:id="rId16" display="https://www.amazon.com/dp/B00HJZJI84/?coliid=I25Z0ZKYPANEK5&amp;colid=2LUIJZIICRMNA&amp;psc=1&amp;ref_=lv_ov_lig_dp_it"/>
-    <hyperlink ref="C19" r:id="rId17" display="https://www.amazon.com/AX200NGW-MU-MIMO-Wireless-Bluetooth-Support/dp/B07SH6GV5S/ref=sr_1_2?keywords=m.2+wifi+bluetooth+linux&amp;qid=1562948062&amp;s=gateway&amp;sr=8-2"/>
-    <hyperlink ref="C20" r:id="rId18" display="https://www.amazon.com/RIITOP-Extender-Extension-Nintendo-Macbook/dp/B07NSXGM7F/ref=sxin_2_ac_d_pm?keywords=usb%2Bc%2Bextension%2Bcable&amp;pd_rd_i=B01LI2X4ME&amp;pd_rd_r=ecef4ce7-409b-40a0-9a92-4a28c759c2de&amp;pd_rd_w=wUSD8&amp;pd_rd_wg=FpYjh&amp;pf_rd_p=64aaff2e-3b89-4fee-a107-2469ecbc5733&amp;pf_rd_r=T7G96XX8V6BS81KAA74N&amp;qid=1562637699&amp;s=aht&amp;th=1"/>
-    <hyperlink ref="C21" r:id="rId19" display="https://www.amazon.com/Monoprice-Flexboot-Ethernet-Patch-Cable/dp/B00AJHCMG4/ref=sr_1_9?keywords=rj45+patch+cable+1ft&amp;qid=1562637988&amp;s=gateway&amp;sr=8-9"/>
-    <hyperlink ref="C22" r:id="rId20" display="https://www.amazon.com/Inline-Coupler-AVACON-Ethernet-Female/dp/B07DWPW5MJ/ref=sr_1_5?keywords=gigabit+ethernet+coupler&amp;qid=1562638098&amp;s=gateway&amp;sr=8-5"/>
+    <hyperlink ref="C19" r:id="rId13" display="https://www.amazon.com/Besgoods-Charging-Braided-Compatible-Nintendo/dp/B07H24V7YJ/ref=sr_1_6?keywords=usb-c+cable+2ft&amp;qid=1562636637&amp;s=pc&amp;sr=1-6"/>
+    <hyperlink ref="C20" r:id="rId14" display="https://www.amazon.com/dp/B00HJZJI84/?coliid=I25Z0ZKYPANEK5&amp;colid=2LUIJZIICRMNA&amp;psc=1&amp;ref_=lv_ov_lig_dp_it"/>
+    <hyperlink ref="C22" r:id="rId15" display="https://www.amazon.com/RIITOP-Extender-Extension-Nintendo-Macbook/dp/B07NSXGM7F/ref=sxin_2_ac_d_pm?keywords=usb%2Bc%2Bextension%2Bcable&amp;pd_rd_i=B01LI2X4ME&amp;pd_rd_r=ecef4ce7-409b-40a0-9a92-4a28c759c2de&amp;pd_rd_w=wUSD8&amp;pd_rd_wg=FpYjh&amp;pf_rd_p=64aaff2e-3b89-4fee-a107-2469ecbc5733&amp;pf_rd_r=T7G96XX8V6BS81KAA74N&amp;qid=1562637699&amp;s=aht&amp;th=1"/>
+    <hyperlink ref="C23" r:id="rId16" display="https://www.amazon.com/Monoprice-Flexboot-Ethernet-Patch-Cable/dp/B00AJHCMG4/ref=sr_1_9?keywords=rj45+patch+cable+1ft&amp;qid=1562637988&amp;s=gateway&amp;sr=8-9"/>
+    <hyperlink ref="C24" r:id="rId17" display="https://www.amazon.com/Inline-Coupler-AVACON-Ethernet-Female/dp/B07DWPW5MJ/ref=sr_1_5?keywords=gigabit+ethernet+coupler&amp;qid=1562638098&amp;s=gateway&amp;sr=8-5"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2135,317 +1467,13 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A3:C24"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="17.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="13.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="15.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="18.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="16.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="17.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="15.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="7.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="12.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="18.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="19.63"/>
-  </cols>
-  <sheetData>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="n">
-        <v>76.19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16" t="n">
-        <v>224.67</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16" t="n">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16" t="n">
-        <v>38.95</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16" t="n">
-        <v>39.95</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="16" t="n">
-        <v>26.99</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="16" t="n">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="16" t="n">
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="16" t="n">
-        <v>15.35</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16" t="n">
-        <v>63.99</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="16" t="n">
-        <v>239.56</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="16" t="n">
-        <v>99.95</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16" t="n">
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="16" t="n">
-        <v>8.59</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="16" t="n">
-        <v>34.99</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="16" t="n">
-        <v>15.99</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="16" t="n">
-        <v>2.22</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16" t="n">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="18" t="n">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="20" t="n">
-        <v>21</v>
-      </c>
-      <c r="C24" s="21" t="n">
-        <v>1356.16</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2455,30 +1483,30 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">

--- a/Laptop_build.xlsx
+++ b/Laptop_build.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -200,22 +200,19 @@
     <t xml:space="preserve">Screen 15.6in</t>
   </si>
   <si>
-    <t xml:space="preserve">USB-C cable (video)</t>
+    <t xml:space="preserve">ZSCMALLS 15.6”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/ZSCMALLS-Portable-Computer-Nintendo-Raspberry/dp/B07VFF4TZG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB-C cable</t>
   </si>
   <si>
     <t xml:space="preserve">USB-C 1.5ft x2</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/Besgoods-Charging-Braided-Compatible-Nintendo/dp/B07H24V7YJ/ref=sr_1_6?keywords=usb-c+cable+2ft&amp;qid=1562636637&amp;s=pc&amp;sr=1-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB-SATA adapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB to SATA cable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B00HJZJI84/?coliid=I25Z0ZKYPANEK5&amp;colid=2LUIJZIICRMNA&amp;psc=1&amp;ref_=lv_ov_lig_dp_it</t>
   </si>
   <si>
     <t xml:space="preserve">WiFi/BT</t>
@@ -521,8 +518,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K25" headerRowCount="1" totalsRowCount="1" totalsRowShown="1">
-  <autoFilter ref="A1:K25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K24" headerRowCount="1" totalsRowCount="1" totalsRowShown="1">
+  <autoFilter ref="A1:K24"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Part"/>
     <tableColumn id="2" name="Name"/>
@@ -544,13 +541,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.79"/>
@@ -1170,32 +1167,49 @@
       <c r="A18" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="B18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>129.99</v>
+      </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>129.99</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>644</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>644</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>8.59</v>
@@ -1225,95 +1239,95 @@
         <v>40.82</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>10.99</v>
+        <v>16.9</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>10.99</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="I20" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>58.9</v>
+        <v>8.5</v>
       </c>
       <c r="K20" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>16.9</v>
+        <v>15.99</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>16.9</v>
+        <v>15.99</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I21" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>8.5</v>
+        <v>22.7</v>
       </c>
       <c r="K21" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>8.5</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>15.99</v>
+        <v>2.22</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F22" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>15.99</v>
+        <v>2.22</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>0</v>
@@ -1326,32 +1340,32 @@
         <v>0</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>22.7</v>
+        <v>18.14</v>
       </c>
       <c r="K22" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>22.7</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>2.22</v>
+        <v>6.99</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>2.22</v>
+        <v>6.99</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>0</v>
@@ -1364,81 +1378,44 @@
         <v>0</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>18.14</v>
+        <v>22.7</v>
       </c>
       <c r="K23" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>18.14</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="1" t="n">
-        <v>6.99</v>
-      </c>
+      <c r="D24" s="0"/>
       <c r="E24" s="0" t="n">
-        <v>1</v>
+        <f aca="false">SUBTOTAL(109,Table1[Quantity])</f>
+        <v>24</v>
       </c>
       <c r="F24" s="4" t="n">
-        <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>6.99</v>
+        <f aca="false">SUBTOTAL(109,Table1[Price total])</f>
+        <v>1313.47</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUBTOTAL(109,Table1[Power draw (A)])</f>
+        <v>13.18293</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0" t="n">
-        <f aca="false">SUBTOTAL(109,Table1[Quantity])</f>
-        <v>25</v>
-      </c>
-      <c r="F25" s="4" t="n">
-        <f aca="false">SUBTOTAL(109,Table1[Price total])</f>
-        <v>1194.47</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <f aca="false">SUBTOTAL(109,Table1[Power draw (A)])</f>
-        <v>10.18293</v>
-      </c>
-      <c r="H25" s="0" t="n">
         <f aca="false">SUBTOTAL(104,Table1[Power supply (V)])</f>
         <v>19</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Watt total])</f>
-        <v>72.06749</v>
-      </c>
-      <c r="K25" s="0" t="n">
+        <v>87.06749</v>
+      </c>
+      <c r="K24" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Weight total])</f>
-        <v>3233.99</v>
-      </c>
-    </row>
+        <v>3819.09</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.udoo.org/udoo-bolt/"/>
@@ -1454,10 +1431,9 @@
     <hyperlink ref="C13" r:id="rId11" display="https://www.amazon.com/BreadBoard-ZipWire-Solderless-ZW-MM-10-ZipWires/dp/B00PKKPSCU/ref=sr_1_25?keywords=solderless+breadboard&amp;qid=1562626835&amp;s=industrial&amp;sr=1-25"/>
     <hyperlink ref="C14" r:id="rId12" display="https://www.amazon.com/Anker-Extended-MacBook-Surface-Notebook/dp/B07L32B9C2/ref=sr_1_4?keywords=usb+3+hub&amp;qid=1562626939&amp;s=gateway&amp;smid=A294P4X9EWVXLJ&amp;sr=8-4"/>
     <hyperlink ref="C19" r:id="rId13" display="https://www.amazon.com/Besgoods-Charging-Braided-Compatible-Nintendo/dp/B07H24V7YJ/ref=sr_1_6?keywords=usb-c+cable+2ft&amp;qid=1562636637&amp;s=pc&amp;sr=1-6"/>
-    <hyperlink ref="C20" r:id="rId14" display="https://www.amazon.com/dp/B00HJZJI84/?coliid=I25Z0ZKYPANEK5&amp;colid=2LUIJZIICRMNA&amp;psc=1&amp;ref_=lv_ov_lig_dp_it"/>
-    <hyperlink ref="C22" r:id="rId15" display="https://www.amazon.com/RIITOP-Extender-Extension-Nintendo-Macbook/dp/B07NSXGM7F/ref=sxin_2_ac_d_pm?keywords=usb%2Bc%2Bextension%2Bcable&amp;pd_rd_i=B01LI2X4ME&amp;pd_rd_r=ecef4ce7-409b-40a0-9a92-4a28c759c2de&amp;pd_rd_w=wUSD8&amp;pd_rd_wg=FpYjh&amp;pf_rd_p=64aaff2e-3b89-4fee-a107-2469ecbc5733&amp;pf_rd_r=T7G96XX8V6BS81KAA74N&amp;qid=1562637699&amp;s=aht&amp;th=1"/>
-    <hyperlink ref="C23" r:id="rId16" display="https://www.amazon.com/Monoprice-Flexboot-Ethernet-Patch-Cable/dp/B00AJHCMG4/ref=sr_1_9?keywords=rj45+patch+cable+1ft&amp;qid=1562637988&amp;s=gateway&amp;sr=8-9"/>
-    <hyperlink ref="C24" r:id="rId17" display="https://www.amazon.com/Inline-Coupler-AVACON-Ethernet-Female/dp/B07DWPW5MJ/ref=sr_1_5?keywords=gigabit+ethernet+coupler&amp;qid=1562638098&amp;s=gateway&amp;sr=8-5"/>
+    <hyperlink ref="C21" r:id="rId14" display="https://www.amazon.com/RIITOP-Extender-Extension-Nintendo-Macbook/dp/B07NSXGM7F/ref=sxin_2_ac_d_pm?keywords=usb%2Bc%2Bextension%2Bcable&amp;pd_rd_i=B01LI2X4ME&amp;pd_rd_r=ecef4ce7-409b-40a0-9a92-4a28c759c2de&amp;pd_rd_w=wUSD8&amp;pd_rd_wg=FpYjh&amp;pf_rd_p=64aaff2e-3b89-4fee-a107-2469ecbc5733&amp;pf_rd_r=T7G96XX8V6BS81KAA74N&amp;qid=1562637699&amp;s=aht&amp;th=1"/>
+    <hyperlink ref="C22" r:id="rId15" display="https://www.amazon.com/Monoprice-Flexboot-Ethernet-Patch-Cable/dp/B00AJHCMG4/ref=sr_1_9?keywords=rj45+patch+cable+1ft&amp;qid=1562637988&amp;s=gateway&amp;sr=8-9"/>
+    <hyperlink ref="C23" r:id="rId16" display="https://www.amazon.com/Inline-Coupler-AVACON-Ethernet-Female/dp/B07DWPW5MJ/ref=sr_1_5?keywords=gigabit+ethernet+coupler&amp;qid=1562638098&amp;s=gateway&amp;sr=8-5"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1467,7 +1443,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1483,14 +1459,14 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1507,13 +1483,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1521,43 +1497,43 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="M5" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4</v>
@@ -1565,10 +1541,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1.6</v>

--- a/Laptop_build.xlsx
+++ b/Laptop_build.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -249,6 +249,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/Inline-Coupler-AVACON-Ethernet-Female/dp/B07DWPW5MJ/ref=sr_1_5?keywords=gigabit+ethernet+coupler&amp;qid=1562638098&amp;s=gateway&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooling fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini 5V cooling fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.adafruit.com/product/3368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMP36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/analog-devices-inc/TMP36GT9Z/820404</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -518,8 +536,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K24" headerRowCount="1" totalsRowCount="1" totalsRowShown="1">
-  <autoFilter ref="A1:K24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K26" headerRowCount="1" totalsRowCount="1" totalsRowShown="1">
+  <autoFilter ref="A1:K26"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Part"/>
     <tableColumn id="2" name="Name"/>
@@ -541,13 +559,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.79"/>
@@ -1385,37 +1403,113 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="0"/>
+      <c r="B24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>3.5</v>
+      </c>
       <c r="E24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
+        <v>10.5</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
+        <v>3</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
+        <v>5.92</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
+        <v>0.002</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Quantity])</f>
-        <v>24</v>
-      </c>
-      <c r="F24" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="F26" s="4" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Price total])</f>
-        <v>1313.47</v>
-      </c>
-      <c r="G24" s="0" t="n">
+        <v>1329.89</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Power draw (A)])</f>
-        <v>13.18293</v>
-      </c>
-      <c r="H24" s="0" t="n">
+        <v>13.38303</v>
+      </c>
+      <c r="H26" s="0" t="n">
         <f aca="false">SUBTOTAL(104,Table1[Power supply (V)])</f>
         <v>19</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Watt total])</f>
-        <v>87.06749</v>
-      </c>
-      <c r="K24" s="0" t="n">
+        <v>90.06949</v>
+      </c>
+      <c r="K26" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Weight total])</f>
-        <v>3819.09</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>3837.69</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0"/>
+      <c r="F27" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.udoo.org/udoo-bolt/"/>
@@ -1459,14 +1553,14 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1483,13 +1577,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1497,43 +1591,43 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4</v>
@@ -1541,10 +1635,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1.6</v>

--- a/Laptop_build.xlsx
+++ b/Laptop_build.xlsx
@@ -248,7 +248,7 @@
     <t xml:space="preserve">RJ45 coupler 10Gb</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.amazon.com/Inline-Coupler-AVACON-Ethernet-Female/dp/B07DWPW5MJ/ref=sr_1_5?keywords=gigabit+ethernet+coupler&amp;qid=1562638098&amp;s=gateway&amp;sr=8-5</t>
+    <t xml:space="preserve">https://www.amazon.com/Haitronic-ethernet-Connector-Ethernet-Extender/dp/B06XPZBRJ2/136-8664393-2449817?psc=1</t>
   </si>
   <si>
     <t xml:space="preserve">Cooling fan</t>
@@ -561,11 +561,11 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.79"/>
@@ -1365,7 +1365,7 @@
         <v>18.14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>73</v>
       </c>
@@ -1527,7 +1527,6 @@
     <hyperlink ref="C19" r:id="rId13" display="https://www.amazon.com/Besgoods-Charging-Braided-Compatible-Nintendo/dp/B07H24V7YJ/ref=sr_1_6?keywords=usb-c+cable+2ft&amp;qid=1562636637&amp;s=pc&amp;sr=1-6"/>
     <hyperlink ref="C21" r:id="rId14" display="https://www.amazon.com/RIITOP-Extender-Extension-Nintendo-Macbook/dp/B07NSXGM7F/ref=sxin_2_ac_d_pm?keywords=usb%2Bc%2Bextension%2Bcable&amp;pd_rd_i=B01LI2X4ME&amp;pd_rd_r=ecef4ce7-409b-40a0-9a92-4a28c759c2de&amp;pd_rd_w=wUSD8&amp;pd_rd_wg=FpYjh&amp;pf_rd_p=64aaff2e-3b89-4fee-a107-2469ecbc5733&amp;pf_rd_r=T7G96XX8V6BS81KAA74N&amp;qid=1562637699&amp;s=aht&amp;th=1"/>
     <hyperlink ref="C22" r:id="rId15" display="https://www.amazon.com/Monoprice-Flexboot-Ethernet-Patch-Cable/dp/B00AJHCMG4/ref=sr_1_9?keywords=rj45+patch+cable+1ft&amp;qid=1562637988&amp;s=gateway&amp;sr=8-9"/>
-    <hyperlink ref="C23" r:id="rId16" display="https://www.amazon.com/Inline-Coupler-AVACON-Ethernet-Female/dp/B07DWPW5MJ/ref=sr_1_5?keywords=gigabit+ethernet+coupler&amp;qid=1562638098&amp;s=gateway&amp;sr=8-5"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1537,7 +1536,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1549,11 +1548,11 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
   </cols>

--- a/Laptop_build.xlsx
+++ b/Laptop_build.xlsx
@@ -561,11 +561,11 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.79"/>
@@ -1131,12 +1131,15 @@
         <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
         <v>7.99</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>0.25</v>
+      </c>
       <c r="H16" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>120</v>
@@ -1491,7 +1494,7 @@
       </c>
       <c r="G26" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Power draw (A)])</f>
-        <v>13.38303</v>
+        <v>13.63303</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">SUBTOTAL(104,Table1[Power supply (V)])</f>
@@ -1499,7 +1502,7 @@
       </c>
       <c r="I26" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Watt total])</f>
-        <v>90.06949</v>
+        <v>91.31949</v>
       </c>
       <c r="K26" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Weight total])</f>
@@ -1548,11 +1551,11 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
   </cols>

--- a/Laptop_build.xlsx
+++ b/Laptop_build.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Cooling" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="BatteryReqs" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -312,17 +313,87 @@
   </si>
   <si>
     <t xml:space="preserve">mineral oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per Battery Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N. Battery Packs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power system available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N. 18650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Wh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power draw (from Parts sheet), W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V/cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total mAh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to death (h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mAh/cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available power (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mAh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only input on this color!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARNING: THIS SPREADSHEET IS LIKELY WRONG.  I am not an electrical engineer, and it has not (yet) been looked over by one!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -361,21 +432,91 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF38"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -427,7 +568,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -454,6 +595,82 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -472,18 +689,68 @@
     <cellStyle name="Pivot Table Value" xfId="26"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF006600"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFFF38"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -497,7 +764,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -513,7 +780,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -526,7 +793,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -561,11 +828,11 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.79"/>
@@ -1555,7 +1822,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
   </cols>
@@ -1658,4 +1925,281 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="L1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <f aca="false">B6*B5</f>
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <f aca="false">B3*B5</f>
+        <v>14.4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="12" t="n">
+        <f aca="false">J3*J4/1000</f>
+        <v>144</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="12" t="n">
+        <f aca="false">Parts!I26</f>
+        <v>91.31949</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <f aca="false">B4*B7/1000*B6</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="12" t="n">
+        <f aca="false">G3*D5</f>
+        <v>10000</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="12" t="n">
+        <f aca="false">J2/O2</f>
+        <v>1.57688134263562</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="14" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <f aca="false">D3*D2</f>
+        <v>72</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <f aca="false">D2*G2</f>
+        <v>14.4</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18" t="n">
+        <f aca="false">J5*J4</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <f aca="false">B6*B4</f>
+        <v>5000</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="18" t="n">
+        <f aca="false">G3*D3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <f aca="false">D5*D2/1000</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D21" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="F12:G15"/>
+    <mergeCell ref="D21:G24"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>BatteryReqs!$O$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="cellIs" priority="4" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>BatteryReqs!$O$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" priority="5" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Laptop_build.xlsx
+++ b/Laptop_build.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="125">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -378,10 +378,25 @@
     <t xml:space="preserve">C rating</t>
   </si>
   <si>
+    <t xml:space="preserve">Watt-amp avail &amp; draw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rail voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avail (A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw (A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw (W)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Only input on this color!</t>
   </si>
   <si>
-    <t xml:space="preserve">WARNING: THIS SPREADSHEET IS LIKELY WRONG.  I am not an electrical engineer, and it has not (yet) been looked over by one!</t>
+    <t xml:space="preserve">WARNING: THIS SPREADSHEET IS LIKELY WRONG.  I am not an electrical engineer, and it has not (yet) been looked over by one!  Some of the formulas are KNOWN TO BE INCORRECT!</t>
   </si>
 </sst>
 </file>
@@ -568,7 +583,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -617,10 +632,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -665,11 +676,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -829,10 +852,10 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.79"/>
@@ -1154,11 +1177,11 @@
         <v>0.00393</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>0.01179</v>
+        <v>0.012969</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
@@ -1214,11 +1237,11 @@
         <v>74.89</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Price per]]*Table1[[#This Row],[Quantity]]</f>
-        <v>224.67</v>
+        <v>149.78</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Power draw (A)]]*Table1[[#This Row],[Power supply (V)]]*Table1[[#This Row],[Quantity]]</f>
@@ -1229,7 +1252,7 @@
       </c>
       <c r="K11" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Weight (g)]]*Table1[[#This Row],[Quantity]]</f>
-        <v>2259</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1753,11 +1776,11 @@
       <c r="D26" s="0"/>
       <c r="E26" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Quantity])</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" s="4" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Price total])</f>
-        <v>1329.89</v>
+        <v>1255</v>
       </c>
       <c r="G26" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Power draw (A)])</f>
@@ -1769,11 +1792,11 @@
       </c>
       <c r="I26" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Watt total])</f>
-        <v>91.31949</v>
+        <v>91.320669</v>
       </c>
       <c r="K26" s="0" t="n">
         <f aca="false">SUBTOTAL(109,Table1[Weight total])</f>
-        <v>3837.69</v>
+        <v>3084.69</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,7 +1845,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
   </cols>
@@ -1935,10 +1958,10 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.9"/>
   </cols>
@@ -1978,7 +2001,7 @@
       </c>
       <c r="D2" s="10" t="n">
         <f aca="false">B3*B5</f>
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>103</v>
@@ -1989,93 +2012,93 @@
       <c r="I2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="12" t="n">
+      <c r="J2" s="10" t="n">
         <f aca="false">J3*J4/1000</f>
-        <v>144</v>
-      </c>
-      <c r="L2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="12" t="n">
-        <f aca="false">Parts!I26</f>
-        <v>91.31949</v>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="10" t="n">
+        <f aca="false">SUM(L11:L13)</f>
+        <v>84.319169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="14" t="n">
-        <v>3.6</v>
+      <c r="B3" s="13" t="n">
+        <v>3.5</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="10" t="n">
         <f aca="false">B4*B7/1000*B6</f>
-        <v>5</v>
-      </c>
-      <c r="F3" s="15" t="s">
+        <v>5.5</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="16" t="n">
+      <c r="G3" s="15" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="10" t="n">
         <f aca="false">G3*D5</f>
-        <v>10000</v>
-      </c>
-      <c r="L3" s="13" t="s">
+        <v>11000</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12" t="n">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="10" t="n">
         <f aca="false">J2/O2</f>
-        <v>1.57688134263562</v>
+        <v>1.82639371125681</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="14" t="n">
-        <v>2500</v>
+      <c r="B4" s="13" t="n">
+        <v>2750</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>112</v>
       </c>
       <c r="D4" s="10" t="n">
         <f aca="false">D3*D2</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="12" t="n">
+      <c r="J4" s="10" t="n">
         <f aca="false">D2*G2</f>
-        <v>14.4</v>
-      </c>
-      <c r="L4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18" t="n">
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17" t="n">
         <f aca="false">J5*J4</f>
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="13" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -2083,50 +2106,119 @@
       </c>
       <c r="D5" s="10" t="n">
         <f aca="false">B6*B4</f>
-        <v>5000</v>
-      </c>
-      <c r="I5" s="15" t="s">
+        <v>5500</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="18" t="n">
+      <c r="J5" s="17" t="n">
         <f aca="false">G3*D3</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="19" t="n">
+      <c r="B6" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>116</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">D5*D2/1000</f>
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">O4/I11</f>
+        <v>46.6666666666667</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">SUMIFS(Parts!G$2:G$25,Parts!H$2:H$25,I11)</f>
+        <v>1.73293</v>
+      </c>
+      <c r="L11" s="23" t="n">
+        <f aca="false">K11*I11</f>
+        <v>5.718669</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="24" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G12" s="24"/>
+      <c r="I12" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">O4/I12</f>
+        <v>30.8</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">SUMIFS(Parts!G$2:G$25,Parts!H$2:H$25,I12)</f>
+        <v>3.7501</v>
+      </c>
+      <c r="L12" s="23" t="n">
+        <f aca="false">K12*I12</f>
+        <v>18.7505</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
+      <c r="I13" s="25" t="n">
+        <v>19</v>
+      </c>
+      <c r="J13" s="26" t="n">
+        <f aca="false">O4/I13</f>
+        <v>8.10526315789474</v>
+      </c>
+      <c r="K13" s="26" t="n">
+        <f aca="false">SUMIFS(Parts!G$2:G$25,Parts!H$2:H$25,I13)</f>
+        <v>3.15</v>
+      </c>
+      <c r="L13" s="17" t="n">
+        <f aca="false">K13*I13</f>
+        <v>59.85</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="24"/>
@@ -2137,33 +2229,33 @@
       <c r="G15" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D21" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="D21" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:J1"/>
@@ -2171,6 +2263,7 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="L4:N4"/>
+    <mergeCell ref="I9:L9"/>
     <mergeCell ref="F12:G15"/>
     <mergeCell ref="D21:G24"/>
   </mergeCells>
